--- a/EquipmentUtilizationReport.xlsx
+++ b/EquipmentUtilizationReport.xlsx
@@ -521,17 +521,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RILEY LOW</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PT Assigned To: RILEY LOW</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -568,17 +568,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: TIM EADS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PT Assigned To: TIM EADS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -615,17 +615,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -662,17 +662,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -709,17 +709,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROLANDO TEJADA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROLANDO TEJADA</t>
+          <t xml:space="preserve">Riley Low, </t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: SPARE</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PT Assigned To: SPARE</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -803,17 +803,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ONIE FINLEY</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PT Assigned To: ONIE FINLEY</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -850,17 +850,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Jorge Camarillo</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PT Assigned To: Jorge Camarillo</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -897,17 +897,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Ricardo BELTRAN</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PT Assigned To: Ricardo BELTRAN</t>
+          <t xml:space="preserve">Ricardo Beltran, </t>
         </is>
       </c>
     </row>
@@ -944,17 +944,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: FELIX COUTEE</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PT Assigned To: FELIX COUTEE</t>
+          <t xml:space="preserve">Felix Coutee, </t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ZACK MARKWARDT</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PT Assigned To: ZACK MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1038,17 +1038,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ARTURO GONZALEZ</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PT Assigned To: ARTURO GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1085,17 +1085,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MIGUEL SOTO JR</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>PT Assigned To: MIGUEL SOTO JR</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MATT BARTOS</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PT Assigned To: MATT BARTOS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: CARLOS MADRIGAL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>PT Assigned To: CARLOS MADRIGAL</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOSE GONZALEZ</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOSE GONZALEZ</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOE HERRERA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOE HERRERA</t>
+          <t xml:space="preserve">Joe Herrera, </t>
         </is>
       </c>
     </row>
@@ -1320,17 +1320,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ANTONIO MUNOZ</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PT Assigned To: ANTONIO MUNOZ</t>
+          <t xml:space="preserve">Antonio Munoz-Raygoza, </t>
         </is>
       </c>
     </row>
@@ -1367,17 +1367,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Spare</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>PT Assigned To: Spare</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1414,17 +1414,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ALVARO LOPEZ</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>PT Assigned To: ALVARO LOPEZ</t>
+          <t xml:space="preserve">Alvaro Lopez Hernandez, </t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JONATHAN MALLARD</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>PT Assigned To: JONATHAN MALLARD</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1508,17 +1508,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RICARDO REYES GARCIA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>PT Assigned To: RICARDO REYES GARCIA</t>
+          <t xml:space="preserve">Ricardo Garcia Reyes, </t>
         </is>
       </c>
     </row>
@@ -1555,17 +1555,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAFAEL GONZALEZ</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAFAEL GONZALEZ</t>
+          <t xml:space="preserve">Rafael Gonzalez Torres, </t>
         </is>
       </c>
     </row>
@@ -1602,17 +1602,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
+          <t xml:space="preserve">Rogelio Trujillo Adan, </t>
         </is>
       </c>
     </row>
@@ -1649,17 +1649,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID MARKWARDT</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
+          <t xml:space="preserve">Jesus Mosqueda, </t>
         </is>
       </c>
     </row>
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAY SOTO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAY SOTO</t>
+          <t xml:space="preserve">Raymundo Soto, </t>
         </is>
       </c>
     </row>
@@ -1790,17 +1790,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JETT DERISO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>PT Assigned To: JETT DERISO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -1884,17 +1884,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: GABINO GONZALEZ</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>PT Assigned To: GABINO GONZALEZ</t>
+          <t xml:space="preserve">Gabino Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -1931,17 +1931,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOE HERRERA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOE HERRERA</t>
+          <t xml:space="preserve">Joe Herrera, </t>
         </is>
       </c>
     </row>
@@ -1978,17 +1978,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Spare</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>PT Assigned To: Spare</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2072,17 +2072,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROLANDO TEJADA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROLANDO TEJADA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RILEY LOW</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>PT Assigned To: RILEY LOW</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2166,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: TIM EADS</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>PT Assigned To: TIM EADS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2213,17 +2213,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ANTONIO MUNOZ</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>PT Assigned To: ANTONIO MUNOZ</t>
+          <t xml:space="preserve">Antonio Munoz-Raygoza, </t>
         </is>
       </c>
     </row>
@@ -2260,17 +2260,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -2307,17 +2307,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ALVARO LOPEZ</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>PT Assigned To: ALVARO LOPEZ</t>
+          <t xml:space="preserve">Alvaro Lopez Hernandez, </t>
         </is>
       </c>
     </row>
@@ -2354,17 +2354,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JONATHAN MALLARD</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>PT Assigned To: JONATHAN MALLARD</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RICARDO REYES GARCIA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>PT Assigned To: RICARDO REYES GARCIA</t>
+          <t xml:space="preserve">Ricardo Garcia Reyes, </t>
         </is>
       </c>
     </row>
@@ -2448,17 +2448,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAFAEL GONZALEZ</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAFAEL GONZALEZ</t>
+          <t xml:space="preserve">Rafael Gonzalez Torres, </t>
         </is>
       </c>
     </row>
@@ -2495,17 +2495,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2542,17 +2542,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID MARKWARDT</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2589,17 +2589,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
+          <t xml:space="preserve">Jesus Mosqueda, </t>
         </is>
       </c>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAY SOTO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAY SOTO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2683,17 +2683,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JETT DERISO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>PT Assigned To: JETT DERISO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2777,17 +2777,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: GABINO GONZALEZ</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>PT Assigned To: GABINO GONZALEZ</t>
+          <t xml:space="preserve">Gabino Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -2824,17 +2824,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: SPARE</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>PT Assigned To: SPARE</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2871,17 +2871,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ONIE FINLEY</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>PT Assigned To: ONIE FINLEY</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -2918,17 +2918,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Jorge Camarillo</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>PT Assigned To: Jorge Camarillo</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -2965,17 +2965,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Ricardo BELTRAN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>PT Assigned To: Ricardo BELTRAN</t>
+          <t xml:space="preserve">Ricardo Beltran, </t>
         </is>
       </c>
     </row>
@@ -3012,17 +3012,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: FELIX COUTEE</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>PT Assigned To: FELIX COUTEE</t>
+          <t xml:space="preserve">Felix Coutee, </t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ZACK MARKWARDT</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>PT Assigned To: ZACK MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3106,17 +3106,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ARTURO GONZALEZ</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>PT Assigned To: ARTURO GONZALEZ</t>
+          <t xml:space="preserve">Arturo Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -3153,17 +3153,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MIGUEL SOTO JR</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>PT Assigned To: MIGUEL SOTO JR</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3200,17 +3200,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MATT BARTOS</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>PT Assigned To: MATT BARTOS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3247,17 +3247,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: CARLOS MADRIGAL</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>PT Assigned To: CARLOS MADRIGAL</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3294,17 +3294,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOSE GONZALEZ</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOSE GONZALEZ</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOE HERRERA</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOE HERRERA</t>
+          <t xml:space="preserve">Joe Herrera, </t>
         </is>
       </c>
     </row>
@@ -3388,17 +3388,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ANTONIO MUNOZ</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>PT Assigned To: ANTONIO MUNOZ</t>
+          <t xml:space="preserve">Antonio Munoz-Raygoza, </t>
         </is>
       </c>
     </row>
@@ -3435,17 +3435,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Spare</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>PT Assigned To: Spare</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3482,17 +3482,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROLANDO TEJADA</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROLANDO TEJADA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3529,17 +3529,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: SPARE</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>PT Assigned To: SPARE</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ONIE FINLEY</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>PT Assigned To: ONIE FINLEY</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3623,17 +3623,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Jorge Camarillo</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>PT Assigned To: Jorge Camarillo</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -3670,17 +3670,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Ricardo BELTRAN</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>PT Assigned To: Ricardo BELTRAN</t>
+          <t xml:space="preserve">Ricardo Beltran, </t>
         </is>
       </c>
     </row>
@@ -3717,17 +3717,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: FELIX COUTEE</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>PT Assigned To: FELIX COUTEE</t>
+          <t xml:space="preserve">Felix Coutee, </t>
         </is>
       </c>
     </row>
@@ -3764,17 +3764,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ZACK MARKWARDT</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>PT Assigned To: ZACK MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ARTURO GONZALEZ</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>PT Assigned To: ARTURO GONZALEZ</t>
+          <t xml:space="preserve">Arturo Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -3858,17 +3858,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MIGUEL SOTO JR</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>PT Assigned To: MIGUEL SOTO JR</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3905,17 +3905,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MATT BARTOS</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>PT Assigned To: MATT BARTOS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3952,17 +3952,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: CARLOS MADRIGAL</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>PT Assigned To: CARLOS MADRIGAL</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOSE GONZALEZ</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOSE GONZALEZ</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -4046,17 +4046,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RILEY LOW</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>PT Assigned To: RILEY LOW</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4093,17 +4093,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: TIM EADS</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>PT Assigned To: TIM EADS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4140,17 +4140,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4187,17 +4187,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -4234,17 +4234,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ALVARO LOPEZ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>PT Assigned To: ALVARO LOPEZ</t>
+          <t xml:space="preserve">Alvaro Lopez Hernandez, </t>
         </is>
       </c>
     </row>
@@ -4281,17 +4281,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JONATHAN MALLARD</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>PT Assigned To: JONATHAN MALLARD</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4328,17 +4328,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RICARDO REYES GARCIA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>PT Assigned To: RICARDO REYES GARCIA</t>
+          <t xml:space="preserve">Ricardo Garcia Reyes, </t>
         </is>
       </c>
     </row>
@@ -4375,17 +4375,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAFAEL GONZALEZ</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAFAEL GONZALEZ</t>
+          <t xml:space="preserve">Rafael Gonzalez Torres, </t>
         </is>
       </c>
     </row>
@@ -4422,17 +4422,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
+          <t xml:space="preserve">Rogelio Trujillo Adan, </t>
         </is>
       </c>
     </row>
@@ -4469,17 +4469,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID MARKWARDT</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
+          <t xml:space="preserve">Jesus Mosqueda, </t>
         </is>
       </c>
     </row>
@@ -4563,17 +4563,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAY SOTO</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAY SOTO</t>
+          <t xml:space="preserve">Raymundo Soto, </t>
         </is>
       </c>
     </row>
@@ -4610,17 +4610,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JETT DERISO</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>PT Assigned To: JETT DERISO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4657,17 +4657,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4704,17 +4704,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: GABINO GONZALEZ</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>PT Assigned To: GABINO GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4751,17 +4751,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOE HERRERA</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOE HERRERA</t>
+          <t xml:space="preserve">Joe Herrera, </t>
         </is>
       </c>
     </row>
@@ -4798,17 +4798,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ANTONIO MUNOZ</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>PT Assigned To: ANTONIO MUNOZ</t>
+          <t xml:space="preserve">Antonio Munoz-Raygoza, </t>
         </is>
       </c>
     </row>
@@ -4845,17 +4845,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Spare</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>PT Assigned To: Spare</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4892,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROLANDO TEJADA</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROLANDO TEJADA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: SPARE</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>PT Assigned To: SPARE</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -4986,17 +4986,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ONIE FINLEY</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>PT Assigned To: ONIE FINLEY</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5033,17 +5033,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Jorge Camarillo</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>PT Assigned To: Jorge Camarillo</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -5080,17 +5080,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Ricardo BELTRAN</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>PT Assigned To: Ricardo BELTRAN</t>
+          <t xml:space="preserve">Ricardo Beltran, </t>
         </is>
       </c>
     </row>
@@ -5127,17 +5127,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: FELIX COUTEE</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>PT Assigned To: FELIX COUTEE</t>
+          <t xml:space="preserve">Felix Coutee, </t>
         </is>
       </c>
     </row>
@@ -5174,17 +5174,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ZACK MARKWARDT</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>PT Assigned To: ZACK MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5221,17 +5221,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ARTURO GONZALEZ</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>PT Assigned To: ARTURO GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5268,17 +5268,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MIGUEL SOTO JR</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>PT Assigned To: MIGUEL SOTO JR</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5315,17 +5315,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MATT BARTOS</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>PT Assigned To: MATT BARTOS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5362,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: CARLOS MADRIGAL</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>PT Assigned To: CARLOS MADRIGAL</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5409,17 +5409,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOSE GONZALEZ</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOSE GONZALEZ</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -5456,17 +5456,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RILEY LOW</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>PT Assigned To: RILEY LOW</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5503,17 +5503,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: TIM EADS</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>PT Assigned To: TIM EADS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5550,17 +5550,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5597,17 +5597,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t xml:space="preserve">Jose Gonzalez, </t>
         </is>
       </c>
     </row>
@@ -5644,17 +5644,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ALVARO LOPEZ</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>PT Assigned To: ALVARO LOPEZ</t>
+          <t xml:space="preserve">Alvaro Lopez Hernandez, </t>
         </is>
       </c>
     </row>
@@ -5691,17 +5691,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JONATHAN MALLARD</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>PT Assigned To: JONATHAN MALLARD</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5738,17 +5738,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RICARDO REYES GARCIA</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>PT Assigned To: RICARDO REYES GARCIA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAFAEL GONZALEZ</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAFAEL GONZALEZ</t>
+          <t xml:space="preserve">Rafael Gonzalez Torres, </t>
         </is>
       </c>
     </row>
@@ -5832,17 +5832,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5879,17 +5879,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID MARKWARDT</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5926,17 +5926,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -5973,17 +5973,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAY SOTO</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAY SOTO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6020,17 +6020,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JETT DERISO</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>PT Assigned To: JETT DERISO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6067,17 +6067,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6114,17 +6114,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: GABINO GONZALEZ</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>PT Assigned To: GABINO GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6161,17 +6161,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t xml:space="preserve">Jose Quinones Rivas, </t>
         </is>
       </c>
     </row>
@@ -6208,17 +6208,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t xml:space="preserve">Natividad Medellin, </t>
         </is>
       </c>
     </row>
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OUTSIDE OF GEOFENCES! GPS Coordinate Address: 12767, Calloway Cemetery Road, Tarrant, Fort Worth, Tarrant County, Texas, 76040, United States</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PMs currently assigned to projects in this city</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>OUTSIDE OF GEOFENCES! GPS Coordinate Address: 12767, Calloway Cemetery Road, Tarrant, Fort Worth, Tarrant County, Texas, 76040, United States</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6302,17 +6302,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6349,17 +6349,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23014-Mesquite_South Parkway Recon</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>23014-Mesquite_South Parkway Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6396,17 +6396,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6443,17 +6443,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6490,17 +6490,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t xml:space="preserve">Natividad Medellin, </t>
         </is>
       </c>
     </row>
@@ -6537,17 +6537,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6584,17 +6584,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23006-Saginaw_Knowles Dr Impr Ph 2&amp;3</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>23006-Saginaw_Knowles Dr Impr Ph 2&amp;3</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6631,17 +6631,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6678,17 +6678,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t xml:space="preserve">Cesar Oviedo, </t>
         </is>
       </c>
     </row>
@@ -6725,17 +6725,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6772,17 +6772,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23011-Garland_Holford Road Seg A</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>23011-Garland_Holford Road Seg A</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6819,17 +6819,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24010-Van Alstyne_Downtown Streets</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>24010-Van Alstyne_Downtown Streets</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -6866,17 +6866,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t xml:space="preserve">Natividad Medellin, </t>
         </is>
       </c>
     </row>
@@ -6913,17 +6913,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t xml:space="preserve">Cesar Oviedo, </t>
         </is>
       </c>
     </row>
@@ -6960,17 +6960,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t xml:space="preserve">Jose Quinones Rivas, </t>
         </is>
       </c>
     </row>
@@ -7007,17 +7007,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23014-Mesquite_South Parkway Recon</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>23014-Mesquite_South Parkway Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7054,17 +7054,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23005-Dallas_Webb Chapel Road Improv</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>23005-Dallas_Webb Chapel Road Improv</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7101,17 +7101,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7148,17 +7148,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t xml:space="preserve">Cesar Oviedo, </t>
         </is>
       </c>
     </row>
@@ -7195,17 +7195,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RILEY LOW</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>PT Assigned To: RILEY LOW</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7242,17 +7242,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ANTONIO MUNOZ</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>PT Assigned To: ANTONIO MUNOZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7289,17 +7289,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7336,17 +7336,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Spare</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>PT Assigned To: Spare</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7383,17 +7383,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID HERRERA</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID HERRERA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7430,17 +7430,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROLANDO TEJADA</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROLANDO TEJADA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7477,17 +7477,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAFAEL GONZALEZ</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAFAEL GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7524,17 +7524,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Ricardo BELTRAN</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>PT Assigned To: Ricardo BELTRAN</t>
+          <t xml:space="preserve">Ricardo Beltran, </t>
         </is>
       </c>
     </row>
@@ -7571,17 +7571,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: FELIX COUTEE</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>PT Assigned To: FELIX COUTEE</t>
+          <t xml:space="preserve">Felix Coutee, </t>
         </is>
       </c>
     </row>
@@ -7618,17 +7618,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ZACK MARKWARDT</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>PT Assigned To: ZACK MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7665,17 +7665,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ARTURO GONZALEZ</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>PT Assigned To: ARTURO GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7712,17 +7712,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MIGUEL SOTO JR</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>PT Assigned To: MIGUEL SOTO JR</t>
+          <t xml:space="preserve">Miguel Soto, </t>
         </is>
       </c>
     </row>
@@ -7759,17 +7759,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: MATT BARTOS</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>PT Assigned To: MATT BARTOS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7806,17 +7806,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: CARLOS MADRIGAL</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>PT Assigned To: CARLOS MADRIGAL</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7853,17 +7853,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOSE GONZALEZ</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOSE GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7900,17 +7900,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JOE HERRERA</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>PT Assigned To: JOE HERRERA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7947,17 +7947,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: TIM EADS</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>PT Assigned To: TIM EADS</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -7994,17 +7994,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ALVARO LOPEZ</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>PT Assigned To: ALVARO LOPEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8041,17 +8041,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: SPARE</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>PT Assigned To: SPARE</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8088,17 +8088,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JONATHAN MALLARD</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>PT Assigned To: JONATHAN MALLARD</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8135,17 +8135,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ONIE FINLEY</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>PT Assigned To: ONIE FINLEY</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8182,17 +8182,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RICARDO REYES GARCIA</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>PT Assigned To: RICARDO REYES GARCIA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8229,17 +8229,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: Jorge Camarillo</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>PT Assigned To: Jorge Camarillo</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8276,17 +8276,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>PT Assigned To: ROGELIO TRUJULLIO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8323,17 +8323,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: DAVID MARKWARDT</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>PT Assigned To: DAVID MARKWARDT</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8370,17 +8370,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>PT Assigned To: ADRIAN MOSQUEDA</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8417,17 +8417,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: RAY SOTO</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>PT Assigned To: RAY SOTO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8464,17 +8464,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JETT DERISO</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>PT Assigned To: JETT DERISO</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8511,17 +8511,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>PT Assigned To: JUSTIN (Equipment Manager)</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8558,17 +8558,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PT Assigned To: GABINO GONZALEZ</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>PT Assigned To: GABINO GONZALEZ</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8605,17 +8605,17 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8652,17 +8652,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8699,17 +8699,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24003-Hunter_Avondale Farms Dr Ext</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>24003-Hunter_Avondale Farms Dr Ext</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8746,17 +8746,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8840,17 +8840,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23014-Mesquite_South Parkway Recon</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>23014-Mesquite_South Parkway Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8887,17 +8887,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8934,17 +8934,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Derek Dodson (Assigned to All HT/DT Equipment)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -8981,17 +8981,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9028,17 +9028,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OUTSIDE OF GEOFENCES! GPS Coordinate Address: 799, Royal Crest Drive, Richardson, Dallas County, Texas, 75081, United States (32.955638, -96.716825)</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes OR Timothy Yoes OR Timothy Yoes OR Timothy Yoes??? (Just a guess based on the City)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>OUTSIDE OF GEOFENCES! GPS Coordinate Address: 799, Royal Crest Drive, Richardson, Dallas County, Texas, 75081, United States (32.955638, -96.716825)</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9075,17 +9075,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23014-Mesquite_South Parkway Recon</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>23014-Mesquite_South Parkway Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9122,17 +9122,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23006-Saginaw_Knowles Dr Impr Ph 2&amp;3</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>23006-Saginaw_Knowles Dr Impr Ph 2&amp;3</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9169,17 +9169,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23014-Mesquite_South Parkway Recon</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>23014-Mesquite_South Parkway Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9216,17 +9216,17 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9263,17 +9263,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23018-Richardson_Sherwood Dr Recon</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>23018-Richardson_Sherwood Dr Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9310,17 +9310,17 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9357,17 +9357,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9404,17 +9404,17 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9451,17 +9451,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9498,17 +9498,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OUTSIDE OF GEOFENCES! GPS Coordinate Address: 799, Royal Crest Drive, Richardson, Dallas County, Texas, 75081, United States (32.955601, -96.716752)</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes OR Timothy Yoes OR Timothy Yoes OR Timothy Yoes??? (Just a guess based on the City)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>OUTSIDE OF GEOFENCES! GPS Coordinate Address: 799, Royal Crest Drive, Richardson, Dallas County, Texas, 75081, United States (32.955601, -96.716752)</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9545,17 +9545,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9592,17 +9592,17 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9639,17 +9639,17 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9686,17 +9686,17 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9733,17 +9733,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9780,17 +9780,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23011-Garland_Holford Road Seg A</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>23011-Garland_Holford Road Seg A</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9827,17 +9827,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23014-Mesquite_South Parkway Recon</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>23014-Mesquite_South Parkway Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9874,17 +9874,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23011-Garland_Holford Road Seg A</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>23011-Garland_Holford Road Seg A</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9921,17 +9921,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24010-Van Alstyne_Downtown Streets</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>24010-Van Alstyne_Downtown Streets</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -9968,17 +9968,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10015,17 +10015,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24010-Van Alstyne_Downtown Streets</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>24010-Van Alstyne_Downtown Streets</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10062,17 +10062,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24010-Van Alstyne_Downtown Streets</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>24010-Van Alstyne_Downtown Streets</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10109,17 +10109,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24006-Plano_Water Rehab - River Bend</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>24006-Plano_Water Rehab - River Bend</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10156,17 +10156,17 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23018-Richardson_Sherwood Dr Recon</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>23018-Richardson_Sherwood Dr Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10203,17 +10203,17 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10250,17 +10250,17 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23015-McKinney_Virginia St &amp; Throckm</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>George Trabazo</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>23015-McKinney_Virginia St &amp; Throckm</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10297,17 +10297,17 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23006-Saginaw_Knowles Dr Impr Ph 2&amp;3</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>23006-Saginaw_Knowles Dr Impr Ph 2&amp;3</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10344,17 +10344,17 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23005-Dallas_Webb Chapel Road Improv</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>23005-Dallas_Webb Chapel Road Improv</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10391,17 +10391,17 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Derek Dodson (Assigned to All HT/DT Equipment)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10438,17 +10438,17 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10485,17 +10485,17 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24003-Hunter_Avondale Farms Dr Ext</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Jett DeRiso</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>24003-Hunter_Avondale Farms Dr Ext</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10532,17 +10532,17 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Derek Dodson (Assigned to All HT/DT Equipment)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10579,17 +10579,17 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23011-Garland_Holford Road Seg A</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>23011-Garland_Holford Road Seg A</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10626,17 +10626,17 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23011-Garland_Holford Road Seg A</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Derek Dodson (Assigned to All HT/DT Equipment)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>23011-Garland_Holford Road Seg A</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10673,17 +10673,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23019-Lewisville_North Mill Street</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Brandon Poeschl</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>23019-Lewisville_North Mill Street</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10720,17 +10720,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24007-Richardson_Custer Pkwy Recon</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Timothy Yoes</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>24007-Richardson_Custer Pkwy Recon</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
@@ -10767,17 +10767,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No PM Found</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>OFFICEEXP1-OFFICE EXPANSION PH1</t>
+          <t>No Timecard Entry for This Equipment/Date</t>
         </is>
       </c>
     </row>
